--- a/IP's.xlsx
+++ b/IP's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorbe\Documents\GitHub\RSW23-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC1DAFE-4CDC-4E52-AAA7-ED1279F779ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCF2043-C178-4ED1-90A9-74DD7207993F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Head IP" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>Naam</t>
   </si>
@@ -192,9 +192,6 @@
     <t>10.2.7.3</t>
   </si>
   <si>
-    <t>10.2.8.0</t>
-  </si>
-  <si>
     <t>10.2.8.1-14</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>10.1.13.0</t>
   </si>
   <si>
-    <t>10.1.14.0</t>
-  </si>
-  <si>
     <t>/26</t>
   </si>
   <si>
@@ -292,6 +286,24 @@
   </si>
   <si>
     <t>10.255.0.1</t>
+  </si>
+  <si>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t>10.1.99.0</t>
+  </si>
+  <si>
+    <t>10.2.99.0</t>
+  </si>
+  <si>
+    <t>10.3.1.0</t>
+  </si>
+  <si>
+    <t>10.3.2.0</t>
+  </si>
+  <si>
+    <t>10.3.99.0</t>
   </si>
 </sst>
 </file>
@@ -622,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,9 +646,10 @@
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -661,16 +674,16 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2">
         <v>255255255192</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -678,7 +691,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
         <v>255255255128</v>
@@ -686,8 +699,10 @@
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -695,16 +710,18 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
         <v>255255255192</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -712,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2">
         <v>255255255224</v>
@@ -720,8 +737,10 @@
       <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -729,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>255255255240</v>
@@ -737,8 +756,10 @@
       <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -746,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2">
         <v>255255255240</v>
@@ -754,8 +775,10 @@
       <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -763,7 +786,7 @@
         <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2">
         <v>255255255128</v>
@@ -771,8 +794,10 @@
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -780,16 +805,18 @@
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2">
         <v>255255255192</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -797,16 +824,18 @@
         <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2">
         <v>255255255192</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -814,16 +843,18 @@
         <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2">
         <v>255255255192</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -831,16 +862,18 @@
         <v>150</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -848,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2">
         <v>255255255224</v>
@@ -856,8 +889,10 @@
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -865,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2">
         <v>255255255224</v>
@@ -873,8 +908,10 @@
       <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -882,14 +919,20 @@
         <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2">
         <v>255255255192</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -902,7 +945,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C29" sqref="C29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ECC124-D2A4-4AFA-B342-DBF1A486F435}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,6 +1094,7 @@
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1067,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -1147,7 +1191,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1245,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3">
         <v>255255255240</v>
@@ -1254,10 +1298,10 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1357,28 +1401,140 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9340DC01-E8AB-49DA-A466-E34E320CB0E4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2">
+        <v>255255255128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2">
+        <v>255255255224</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2">
+        <v>255255255224</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0627D0-7E56-4F3B-B1E4-B13B0C58CA72}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1387,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A581A59-3B0A-4DB4-BF81-DC7235800F5A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,68 +1558,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/IP's.xlsx
+++ b/IP's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorbe\Documents\GitHub\RSW23-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCF2043-C178-4ED1-90A9-74DD7207993F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597024BC-15DD-451C-AEFE-6C12D77A8B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="348" windowWidth="9072" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Head IP" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,7 +945,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C30"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ECC124-D2A4-4AFA-B342-DBF1A486F435}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
